--- a/medicine/Handicap/Cœur_univentriculaire/Cœur_univentriculaire.xlsx
+++ b/medicine/Handicap/Cœur_univentriculaire/Cœur_univentriculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C5%93ur_univentriculaire</t>
+          <t>Cœur_univentriculaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cœur univentriculaire est une malformation cardiaque caractérisée par la présence d'une seule cavité ventriculaire qui est dans 80 %  des cas un ventricule gauche avec deux valves auriculo-ventriculaires soit deux entrées ou une seule valve par atrésie de l'autre valve.
 Les autres anomalies avec un seul ventricule mais une seule valve auriculo-ventriculaire ou l'existence de deux ventricules s'accompagnant d'une hypoplasie extrême d'un ventricule ou d'un ventricule non septal sont appelées : cardiopathie congénitale de type uni ventriculaire.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C5%93ur_univentriculaire</t>
+          <t>Cœur_univentriculaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,16 @@
           <t>Explication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ventricule unique, ou cœur univentriculaire, est une malformation cardiaque congénitale avec une incidence inférieure à 10 % de toutes les cardiopathie congénitales et apparaît environ en 5 sur 100 000 nouveau-nés. Il s'agit de la présence d'un seul ventricule et deux oreillettes. La communication entre les oreillettes et les ventricules se fait par une seule valve, le canal atrio-ventriculaire. Il ne faut pas confondre cette pathologie avec le syndrome hypoplasie du cœur gauche.
 Cette malformation entraine un important shunt gauche-droit avec hypertension artérielle pulmonaire d'évolution rapide.
-Il s'agit d'une cardiopathie congénitale grave, avec un taux de mortalité élevé, 85 % dans les deux premières années de vie. La mort est due à une hypoxie et défaillance cardiaque. Si l'enfant réussit à survivre les deux premières années, le taux de mortalité chute vers les 9 % entre 2 et 15 ans. Certains patients arrivent à atteindre 40-50 ans ou plus dépendant des malformations associées. La présence d'une sténose sur la voie d'éjection aortique a un pronostic vital sévère. De même pour la présence d'une sténose sévère ou atrésie de la valve pulmonaire. Les sténoses modérées de la valve pulmonaire sont les bien-venues car elles protègent le lit artériel pulmonaire et ont un meilleur pronostic[1].
+Il s'agit d'une cardiopathie congénitale grave, avec un taux de mortalité élevé, 85 % dans les deux premières années de vie. La mort est due à une hypoxie et défaillance cardiaque. Si l'enfant réussit à survivre les deux premières années, le taux de mortalité chute vers les 9 % entre 2 et 15 ans. Certains patients arrivent à atteindre 40-50 ans ou plus dépendant des malformations associées. La présence d'une sténose sur la voie d'éjection aortique a un pronostic vital sévère. De même pour la présence d'une sténose sévère ou atrésie de la valve pulmonaire. Les sténoses modérées de la valve pulmonaire sont les bien-venues car elles protègent le lit artériel pulmonaire et ont un meilleur pronostic.
 Le diagnostic doit être fait rapidement et, si les conditions sont favorables, la première chirurgie sera le cerclage de l'artère pulmonaire au cas où une sténose modérée n'existerait pas, permettant ainsi de protéger le lit artériel pulmonaire et empêcher le développement de l'hypertension artérielle pulmonaire.
 Pendant la grossesse il n'y a pas de signe de souffrance du fœtus car les circulations pulmonaire et systémique sont interliées. Le diagnostic peut être fait "in uterus" par échocardiographie fœtale et non seulement l'équipe médicale est prête quand l'enfant naît, mais aussi les malformations associées peuvent être diagnostiquées.
-Ainsi que les conditions du nouveau-né sont satisfaisantes, l'intervention de Glenn peut avoir lieu. Ce n'est plus qu'une anastomose cavo-pulmonaire partielle, ce qui renvoie le sang veineux de la veine cave supérieure vers l'artère pulmonaire[2]. Plus tard, vers les 4 ans l'« intervention de Fontan », ou anastomose cavopulmonaire totale, drainera le sang de la veine cave inférieure vers l'artère pulmonaire aussi[3].
+Ainsi que les conditions du nouveau-né sont satisfaisantes, l'intervention de Glenn peut avoir lieu. Ce n'est plus qu'une anastomose cavo-pulmonaire partielle, ce qui renvoie le sang veineux de la veine cave supérieure vers l'artère pulmonaire. Plus tard, vers les 4 ans l'« intervention de Fontan », ou anastomose cavopulmonaire totale, drainera le sang de la veine cave inférieure vers l'artère pulmonaire aussi.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C5%93ur_univentriculaire</t>
+          <t>Cœur_univentriculaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,50 +565,125 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Un seul ventricule
-Deux valves auriculo-ventriculaires : Vrai cœur uni ventriculaire
+          <t>Un seul ventricule</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Deux valves auriculo-ventriculaires : Vrai cœur uni ventriculaire
 Une seule valve auriculo-ventriculaire
 Type canal auriculo-ventriculaire avec isomérisme droit rendant souvent impossible la détermination du type de ventricule
 Valve mitrale
-Valve tricuspide
-Deux ventricules
-Hypoplasie extrême d'un des deux ventricules dans ce cas un des deux ventricules est présent mais non fonctionnel
+Valve tricuspide</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cœur_univentriculaire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C5%93ur_univentriculaire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Différents types</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Deux ventricules</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Hypoplasie extrême d'un des deux ventricules dans ce cas un des deux ventricules est présent mais non fonctionnel
 A.P.S.I : Ventricule droit présent avec tricuspide mais non fonctionnel
 Hypoplasie du cœur gauche
 Atrésie de la tricuspide : le ventricule unique est le ventricule gauche relativement bon pronostic
-Atrésie de la mitrale le ventricule unique est le ventricule droit moins bon pronostic
-Ventricule non septal non réparable
-Straddling des valves auriculo-ventriculaires: présence d'un des feuillets valvulaires dans l'autre ventricule avec communication inter ventriculaire obligatoire
+Atrésie de la mitrale le ventricule unique est le ventricule droit moins bon pronostic</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cœur_univentriculaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C5%93ur_univentriculaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Différents types</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ventricule non septal non réparable</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Straddling des valves auriculo-ventriculaires: présence d'un des feuillets valvulaires dans l'autre ventricule avec communication inter ventriculaire obligatoire
 Communication inter ventriculaire immense ou multiple type fromage de gruyère
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>C%C5%93ur_univentriculaire</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/C%C5%93ur_univentriculaire</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cœur_univentriculaire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C5%93ur_univentriculaire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">[Quoi ?] Shunt gauche droit massif débouchant vers une hypertension artérielle pulmonaire en quelques mois.
 S'il existe une sténose pulmonaire les signes dépendent de l'importance de la sténose soit bien toléré soit cyanose.
@@ -602,31 +691,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>C%C5%93ur_univentriculaire</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/C%C5%93ur_univentriculaire</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cœur_univentriculaire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C5%93ur_univentriculaire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Échographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>L'échographie fait le diagnostic et permet une description précise des anomalies associées :
 Type de ventricule restant
@@ -637,31 +728,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>C%C5%93ur_univentriculaire</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/C%C5%93ur_univentriculaire</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cœur_univentriculaire</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C5%93ur_univentriculaire</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Programme thérapeutique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Le but de la prise en charge est d'avoir :
 Ventricule fonctionnel
@@ -671,9 +764,43 @@
 Retour veineux pulmonaire normal
 Retour veineux systémique
 Veine cave supérieure gauche
-Retour par l'azygos
-Prise en charge
-Correction de la cyanose (Cardiopathie à sang mélangé)
+Retour par l'azygos</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cœur_univentriculaire</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C5%93ur_univentriculaire</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Programme thérapeutique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Prise en charge</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Correction de la cyanose (Cardiopathie à sang mélangé)
 Dérivation cavo pulmonaire totale établissement d'une connexion oreillette droite -artère  pulmonaire (intervention de Fontan)
 Dérivation veine cave inférieure- artère pulmonaire (dérivation extra cardiaque)
 Fenêtre à réaliser pour limiter le débit (donc la pression) dans les poumons
@@ -687,9 +814,43 @@
 En essayant d'amener le rapport débit pulmonaire débit systémique à 1 : Maintenir la saturation en O2 à 70 %
 Limiter les résistances vasculaires pulmonaires et préserver l'anatomie des artères pulmonaires
 Par cerclage de l'artère pulmonaire
-Dérivation cavo pulmonaire partielle ou totale entre 3 et 6 mois
-En pratique
-Hypoplasie du cœur gauche : Traitement palliatif de Norwood
+Dérivation cavo pulmonaire partielle ou totale entre 3 et 6 mois</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cœur_univentriculaire</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C5%93ur_univentriculaire</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Programme thérapeutique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>En pratique</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Hypoplasie du cœur gauche : Traitement palliatif de Norwood
 Obstacle pulmonaire
 Opération de Blalock
 Dérivation cavo pulmonaire partielle
